--- a/TestExcel/Excel_1_单个工作表_多行.xlsx
+++ b/TestExcel/Excel_1_单个工作表_多行.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mengc\writeProject\Qt\gitQtWithExcel\QtWithExcel\build-ExcelDemo_M-Desktop_Qt_5_14_2_MinGW_32_bit-Debug\Exc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mengc\writeProject\Qt\gitQtWithExcel\QtWithExcel\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7C5EE-CB2D-4634-9C65-9E826ACB7AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1DF999-1E52-4EBF-BC74-3EF978BFC8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="2316" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -859,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>22</v>
@@ -929,7 +929,7 @@
         <v>24</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
